--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,651 +448,261 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R011606_0070_001.txt</t>
+          <t>U011606_0070_001.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4771.2001953125</v>
+        <v>5883.60009765625</v>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R011606_0070_002.txt</t>
+          <t>U011606_0070_002.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4928.39990234375</v>
+        <v>5980.80078125</v>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R011606_0070_003.txt</t>
+          <t>U021606_0140_001.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5092.80029296875</v>
+        <v>18903.8984375</v>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>R011606_0070_004.txt</t>
+          <t>U021606_0140_002.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5256</v>
+        <v>19563.900390625</v>
       </c>
       <c r="C5" t="n">
-        <v>119</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>R011606_0070_005.txt</t>
+          <t>U041606_0280_001.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5067.6005859375</v>
+        <v>48215.4140625</v>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>R021606_0140_001.txt</t>
+          <t>U041606_0280_002.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13979.69921875</v>
+        <v>46647.89453125</v>
       </c>
       <c r="C7" t="n">
-        <v>213</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R021606_0140_002.txt</t>
+          <t>U061606_0430_001.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13254.298828125</v>
+        <v>76927.3125</v>
       </c>
       <c r="C8" t="n">
-        <v>203</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R021606_0140_003.txt</t>
+          <t>U061606_0430_002.txt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15763.2041015625</v>
+        <v>79687.65625</v>
       </c>
       <c r="C9" t="n">
-        <v>219</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R021606_0140_004.txt</t>
+          <t>U081606_0570_001.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15775.2001953125</v>
+        <v>111412.3671875</v>
       </c>
       <c r="C10" t="n">
-        <v>226</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R021606_0140_005.txt</t>
+          <t>U081606_0570_002.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14836.5009765625</v>
+        <v>105688.25</v>
       </c>
       <c r="C11" t="n">
-        <v>210</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R041606_0280_001.txt</t>
+          <t>U101606_0720_001.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36750.390625</v>
+        <v>145521</v>
       </c>
       <c r="C12" t="n">
-        <v>455</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R041606_0280_002.txt</t>
+          <t>U101606_0720_002.txt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35853.3984375</v>
+        <v>142992.96875</v>
       </c>
       <c r="C13" t="n">
-        <v>431</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R041606_0280_003.txt</t>
+          <t>U011608_0090_001.txt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33396.1953125</v>
+        <v>8435.9990234375</v>
       </c>
       <c r="C14" t="n">
-        <v>422</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>R041606_0280_004.txt</t>
+          <t>U011608_0090_002.txt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34146.40234375</v>
+        <v>8559.5986328125</v>
       </c>
       <c r="C15" t="n">
-        <v>426</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>R041606_0280_005.txt</t>
+          <t>U021608_0190_001.txt</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34198.41015625</v>
+        <v>28260.91015625</v>
       </c>
       <c r="C16" t="n">
-        <v>431</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>R061606_0430_001.txt</t>
+          <t>U021608_0190_002.txt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58948.11328125</v>
+        <v>29309.99609375</v>
       </c>
       <c r="C17" t="n">
-        <v>666</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R061606_0430_002.txt</t>
+          <t>U041608_0380_001.txt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>57982.609375</v>
+        <v>69689.984375</v>
       </c>
       <c r="C18" t="n">
-        <v>656</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R061606_0430_003.txt</t>
+          <t>U041608_0380_002.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58430.39453125</v>
+        <v>68793.40625</v>
       </c>
       <c r="C19" t="n">
-        <v>660</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R061606_0430_004.txt</t>
+          <t>U061608_0570_001.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56258.59765625</v>
+        <v>110372.3046875</v>
       </c>
       <c r="C20" t="n">
-        <v>652</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R061606_0430_005.txt</t>
+          <t>U061608_0570_002.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57599.59765625</v>
+        <v>112738.59375</v>
       </c>
       <c r="C21" t="n">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>R081606_0570_001.txt</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>75358.6875</v>
-      </c>
-      <c r="C22" t="n">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>R081606_0570_002.txt</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>78655.203125</v>
-      </c>
-      <c r="C23" t="n">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>R081606_0570_003.txt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>81164.125</v>
-      </c>
-      <c r="C24" t="n">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>R081606_0570_004.txt</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>80240.3046875</v>
-      </c>
-      <c r="C25" t="n">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>R081606_0570_005.txt</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>80889.3984375</v>
-      </c>
-      <c r="C26" t="n">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>R101606_0720_001.txt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>100967.7890625</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>R101606_0720_002.txt</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>100752.3828125</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>R101606_0720_003.txt</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>100281.1015625</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>R101606_0720_004.txt</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>102336.1953125</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>R101606_0720_005.txt</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>99954.2734375</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>R011608_0090_001.txt</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>7021.20068359375</v>
-      </c>
-      <c r="C32" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>R011608_0090_002.txt</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>6686.39892578125</v>
-      </c>
-      <c r="C33" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>R011608_0090_003.txt</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>7190.400390625</v>
-      </c>
-      <c r="C34" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>R011608_0090_004.txt</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>6716.400390625</v>
-      </c>
-      <c r="C35" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>R011608_0090_005.txt</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>6965.9990234375</v>
-      </c>
-      <c r="C36" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>R021608_0190_001.txt</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>22635.6015625</v>
-      </c>
-      <c r="C37" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>R021608_0190_002.txt</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>21057.30078125</v>
-      </c>
-      <c r="C38" t="n">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>R021608_0190_003.txt</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>22558.798828125</v>
-      </c>
-      <c r="C39" t="n">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>R021608_0190_004.txt</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>20918.40234375</v>
-      </c>
-      <c r="C40" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>R021608_0190_005.txt</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>22192.501953125</v>
-      </c>
-      <c r="C41" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>R041608_0380_001.txt</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>51537.38671875</v>
-      </c>
-      <c r="C42" t="n">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>R041608_0380_002.txt</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>53612.30078125</v>
-      </c>
-      <c r="C43" t="n">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>R041608_0380_003.txt</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>50595.40625</v>
-      </c>
-      <c r="C44" t="n">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>R041608_0380_004.txt</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>50834.8046875</v>
-      </c>
-      <c r="C45" t="n">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>R041608_0380_005.txt</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>52599.8125</v>
-      </c>
-      <c r="C46" t="n">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>R061608_0570_001.txt</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>79382.71875</v>
-      </c>
-      <c r="C47" t="n">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>R061608_0570_002.txt</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>85288.546875</v>
-      </c>
-      <c r="C48" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>R061608_0570_003.txt</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>82317.28125</v>
-      </c>
-      <c r="C49" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>R061608_0570_004.txt</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>83512.9375</v>
-      </c>
-      <c r="C50" t="n">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>R061608_0570_005.txt</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>83853.7578125</v>
-      </c>
-      <c r="C51" t="n">
-        <v>961</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>

--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>cost_1</t>
+          <t>WT</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>cost_2</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -456,11 +456,13 @@
           <t>R011606_0070_001.txt</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>5155.201171875</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(5031.60009765625, 108.0)</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>0.08710479736328125</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +471,13 @@
           <t>R011606_0070_002.txt</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>5287.2001953125</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(5270.39990234375, 109.0)</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>0.04283499717712402</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +486,13 @@
           <t>R011606_0070_003.txt</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>5270.400390625</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(5339.99951171875, 115.0)</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>0.04666805267333984</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +501,13 @@
           <t>R011606_0070_004.txt</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>5770.79931640625</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(5819.99951171875, 121.0)</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>0.05186009407043457</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +516,13 @@
           <t>R011606_0070_005.txt</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>5314.80078125</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(5271.60009765625, 112.0)</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>0.04389405250549316</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +531,13 @@
           <t>R021606_0140_001.txt</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>18268.19921875</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(18791.40234375, 215.0)</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>211</v>
+        <v>0.1050839424133301</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +546,13 @@
           <t>R021606_0140_002.txt</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>17182.5</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(17618.69921875, 206.0)</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>204</v>
+        <v>0.09598374366760254</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +561,13 @@
           <t>R021606_0140_003.txt</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>19502.998046875</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(19106.6953125, 217.0)</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>220</v>
+        <v>0.1108286380767822</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +576,13 @@
           <t>R021606_0140_004.txt</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21194.99609375</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(20316.896484375, 226.0)</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>231</v>
+        <v>0.1470921039581299</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +591,13 @@
           <t>R021606_0140_005.txt</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>19898.396484375</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(19329.8984375, 212.0)</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>216</v>
+        <v>0.1026759147644043</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +606,13 @@
           <t>R041606_0280_001.txt</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>46281.1015625</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(45891.1015625, 454.0)</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>457</v>
+        <v>0.3536949157714844</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +621,13 @@
           <t>R041606_0280_002.txt</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>42856.61328125</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(42224.60546875, 426.0)</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>430</v>
+        <v>0.2994999885559082</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +636,13 @@
           <t>R041606_0280_003.txt</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>41294.9921875</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(41563.203125, 419.0)</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>420</v>
+        <v>0.4832720756530762</v>
       </c>
     </row>
     <row r="15">
@@ -625,11 +651,13 @@
           <t>R041606_0280_004.txt</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>43082.69140625</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(42208.69140625, 426.0)</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>431</v>
+        <v>0.3106579780578613</v>
       </c>
     </row>
     <row r="16">
@@ -638,11 +666,13 @@
           <t>R041606_0280_005.txt</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>44272.1875</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(42711.59765625, 431.0)</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>437</v>
+        <v>0.3149089813232422</v>
       </c>
     </row>
     <row r="17">
@@ -651,11 +681,13 @@
           <t>R061606_0430_001.txt</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>70091.6015625</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(69037.1015625, 662.0)</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>667</v>
+        <v>0.6559431552886963</v>
       </c>
     </row>
     <row r="18">
@@ -664,11 +696,13 @@
           <t>R061606_0430_002.txt</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>68471.1171875</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(67815.6953125, 654.0)</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>657</v>
+        <v>0.6407537460327148</v>
       </c>
     </row>
     <row r="19">
@@ -677,11 +711,13 @@
           <t>R061606_0430_003.txt</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>68162.4921875</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(67798.2890625, 658.0)</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>664</v>
+        <v>0.6334488391876221</v>
       </c>
     </row>
     <row r="20">
@@ -690,11 +726,13 @@
           <t>R061606_0430_004.txt</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>68022.6953125</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(67688.3125, 650.0)</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>654</v>
+        <v>0.6147568225860596</v>
       </c>
     </row>
     <row r="21">
@@ -703,11 +741,13 @@
           <t>R061606_0430_005.txt</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>69426.7734375</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(69366.5859375, 663.0)</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>665</v>
+        <v>0.6447699069976807</v>
       </c>
     </row>
     <row r="22">
@@ -716,11 +756,13 @@
           <t>R081606_0570_001.txt</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>92586.375</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(92887.171875, 869.0)</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>871</v>
+        <v>1.029743194580078</v>
       </c>
     </row>
     <row r="23">
@@ -729,11 +771,13 @@
           <t>R081606_0570_002.txt</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>93962.8125</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(93717.0234375, 875.0)</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>877</v>
+        <v>1.051329135894775</v>
       </c>
     </row>
     <row r="24">
@@ -742,11 +786,13 @@
           <t>R081606_0570_003.txt</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>96287.046875</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(95765.3984375, 891.0)</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>893</v>
+        <v>1.096752166748047</v>
       </c>
     </row>
     <row r="25">
@@ -755,11 +801,13 @@
           <t>R081606_0570_004.txt</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>93513.1328125</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(93248.9296875, 874.0)</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>877</v>
+        <v>1.083504915237427</v>
       </c>
     </row>
     <row r="26">
@@ -768,11 +816,13 @@
           <t>R081606_0570_005.txt</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>94891.1015625</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(93677.609375, 873.0)</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>883</v>
+        <v>1.090893745422363</v>
       </c>
     </row>
     <row r="27">
@@ -781,11 +831,13 @@
           <t>R101606_0720_001.txt</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>121830.6953125</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(121984.2578125, 1107.0)</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>1111</v>
+        <v>1.552709102630615</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +846,13 @@
           <t>R101606_0720_002.txt</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>117914.3125</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(116892.125, 1085.0)</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>1088</v>
+        <v>1.472003221511841</v>
       </c>
     </row>
     <row r="29">
@@ -807,11 +861,13 @@
           <t>R101606_0720_003.txt</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>119995.46875</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(119424.3125, 1102.0)</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>1105</v>
+        <v>1.560516834259033</v>
       </c>
     </row>
     <row r="30">
@@ -820,11 +876,13 @@
           <t>R101606_0720_004.txt</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>119128.5859375</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(118510.984375, 1086.0)</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>1087</v>
+        <v>1.499727964401245</v>
       </c>
     </row>
     <row r="31">
@@ -833,11 +891,13 @@
           <t>R101606_0720_005.txt</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>117117.203125</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(117142.609375, 1085.0)</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>1085</v>
+        <v>1.549383878707886</v>
       </c>
     </row>
     <row r="32">
@@ -846,11 +906,13 @@
           <t>R011608_0090_001.txt</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>7636.79931640625</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(7527.6005859375, 162.0)</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>163</v>
+        <v>0.07065987586975098</v>
       </c>
     </row>
     <row r="33">
@@ -859,11 +921,13 @@
           <t>R011608_0090_002.txt</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>7608.0009765625</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(7404.00048828125, 160.0)</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>162</v>
+        <v>0.07088208198547363</v>
       </c>
     </row>
     <row r="34">
@@ -872,11 +936,13 @@
           <t>R011608_0090_003.txt</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>7996.802734375</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(7981.19970703125, 171.0)</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>172</v>
+        <v>0.07790398597717285</v>
       </c>
     </row>
     <row r="35">
@@ -885,11 +951,13 @@
           <t>R011608_0090_004.txt</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>7699.201171875</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(7336.80029296875, 158.0)</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>162</v>
+        <v>0.06787991523742676</v>
       </c>
     </row>
     <row r="36">
@@ -898,11 +966,13 @@
           <t>R011608_0090_005.txt</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>7279.19970703125</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(7478.39990234375, 159.0)</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>155</v>
+        <v>0.06739711761474609</v>
       </c>
     </row>
     <row r="37">
@@ -911,11 +981,13 @@
           <t>R021608_0190_001.txt</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>31333.205078125</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(31245.00390625, 329.0)</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>332</v>
+        <v>0.1813240051269531</v>
       </c>
     </row>
     <row r="38">
@@ -924,11 +996,13 @@
           <t>R021608_0190_002.txt</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>30179.6953125</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(30437.0859375, 324.0)</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>326</v>
+        <v>0.1885738372802734</v>
       </c>
     </row>
     <row r="39">
@@ -937,11 +1011,13 @@
           <t>R021608_0190_003.txt</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>29255.994140625</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(29254.19921875, 319.0)</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>323</v>
+        <v>0.1730411052703857</v>
       </c>
     </row>
     <row r="40">
@@ -950,11 +1026,13 @@
           <t>R021608_0190_004.txt</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>28116.8984375</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(27464.3984375, 310.0)</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>315</v>
+        <v>0.16487717628479</v>
       </c>
     </row>
     <row r="41">
@@ -963,11 +1041,13 @@
           <t>R021608_0190_005.txt</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>29983.19921875</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(29437.798828125, 322.0)</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>329</v>
+        <v>0.173720121383667</v>
       </c>
     </row>
     <row r="42">
@@ -976,11 +1056,13 @@
           <t>R041608_0380_001.txt</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>62685.984375</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(62000.6875, 622.0)</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>630</v>
+        <v>0.5482139587402344</v>
       </c>
     </row>
     <row r="43">
@@ -989,11 +1071,13 @@
           <t>R041608_0380_002.txt</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>66020.8984375</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(63738.60546875, 632.0)</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>645</v>
+        <v>0.5269660949707031</v>
       </c>
     </row>
     <row r="44">
@@ -1002,11 +1086,13 @@
           <t>R041608_0380_003.txt</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>62104.20703125</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(62100.8046875, 611.0)</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>620</v>
+        <v>0.471498966217041</v>
       </c>
     </row>
     <row r="45">
@@ -1015,11 +1101,13 @@
           <t>R041608_0380_004.txt</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>63641.7890625</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(62676.2109375, 623.0)</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>633</v>
+        <v>0.4924991130828857</v>
       </c>
     </row>
     <row r="46">
@@ -1028,11 +1116,13 @@
           <t>R041608_0380_005.txt</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>63914.38671875</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(63535.9921875, 629.0)</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>635</v>
+        <v>0.5422921180725098</v>
       </c>
     </row>
     <row r="47">
@@ -1041,11 +1131,13 @@
           <t>R061608_0570_001.txt</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>97269.8984375</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(95993.28125, 910.0)</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>927</v>
+        <v>0.9407579898834229</v>
       </c>
     </row>
     <row r="48">
@@ -1054,11 +1146,13 @@
           <t>R061608_0570_002.txt</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>98935.4765625</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(98062.3125, 931.0)</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>935</v>
+        <v>0.9909958839416504</v>
       </c>
     </row>
     <row r="49">
@@ -1067,11 +1161,13 @@
           <t>R061608_0570_003.txt</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>96865.96875</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(96356.765625, 921.0)</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>926</v>
+        <v>0.960500955581665</v>
       </c>
     </row>
     <row r="50">
@@ -1080,11 +1176,13 @@
           <t>R061608_0570_004.txt</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>98725.6953125</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>(96553.7421875, 916.0)</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>926</v>
+        <v>0.999237060546875</v>
       </c>
     </row>
     <row r="51">
@@ -1093,11 +1191,13 @@
           <t>R061608_0570_005.txt</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>100613.8203125</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>(98372.0234375, 932.0)</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>959</v>
+        <v>0.9913458824157715</v>
       </c>
     </row>
     <row r="52">
@@ -1106,11 +1206,13 @@
           <t>U011606_0070_001.txt</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>5875.201171875</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>(5707.2001953125, 125.0)</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>125</v>
+        <v>0.05446505546569824</v>
       </c>
     </row>
     <row r="53">
@@ -1119,11 +1221,13 @@
           <t>U011606_0070_002.txt</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>6076.80126953125</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(5893.19970703125, 128.0)</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>129</v>
+        <v>0.0569000244140625</v>
       </c>
     </row>
     <row r="54">
@@ -1132,11 +1236,13 @@
           <t>U021606_0140_001.txt</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>23933.69921875</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>(23852.697265625, 249.0)</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>249</v>
+        <v>0.1383066177368164</v>
       </c>
     </row>
     <row r="55">
@@ -1145,11 +1251,13 @@
           <t>U021606_0140_002.txt</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>23260.197265625</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>(23582.400390625, 249.0)</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>249</v>
+        <v>0.1415708065032959</v>
       </c>
     </row>
     <row r="56">
@@ -1158,11 +1266,13 @@
           <t>U041606_0280_001.txt</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>51276.40234375</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>(52227.70703125, 497.0)</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>497</v>
+        <v>0.3992090225219727</v>
       </c>
     </row>
     <row r="57">
@@ -1171,11 +1281,13 @@
           <t>U041606_0280_002.txt</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>50015.69921875</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>(50887.91796875, 496.0)</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>496</v>
+        <v>0.3979270458221436</v>
       </c>
     </row>
     <row r="58">
@@ -1184,11 +1296,13 @@
           <t>U061606_0430_001.txt</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>81199.828125</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>(81907.2421875, 764.0)</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>764</v>
+        <v>0.9967751502990723</v>
       </c>
     </row>
     <row r="59">
@@ -1197,11 +1311,13 @@
           <t>U061606_0430_002.txt</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>81784.6875</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>(81553.703125, 764.0)</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>764</v>
+        <v>0.8491702079772949</v>
       </c>
     </row>
     <row r="60">
@@ -1210,11 +1326,13 @@
           <t>U081606_0570_001.txt</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>111233.8125</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>(111826.4140625, 1013.0)</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>1013</v>
+        <v>1.48969578742981</v>
       </c>
     </row>
     <row r="61">
@@ -1223,11 +1341,13 @@
           <t>U081606_0570_002.txt</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>109609.75</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>(112261.34375, 1014.0)</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>1014</v>
+        <v>1.408981800079346</v>
       </c>
     </row>
     <row r="62">
@@ -1236,11 +1356,13 @@
           <t>U101606_0720_001.txt</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>143056.9375</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>(145189.59375, 1281.0)</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>1281</v>
+        <v>2.009037971496582</v>
       </c>
     </row>
     <row r="63">
@@ -1249,11 +1371,13 @@
           <t>U101606_0720_002.txt</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>143996.421875</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>(144387.703125, 1281.0)</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>1281</v>
+        <v>2.005347728729248</v>
       </c>
     </row>
     <row r="64">
@@ -1262,11 +1386,13 @@
           <t>U011608_0090_001.txt</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>7677.59912109375</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(7567.2001953125, 166.0)</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>166</v>
+        <v>0.07399082183837891</v>
       </c>
     </row>
     <row r="65">
@@ -1275,11 +1401,13 @@
           <t>U011608_0090_002.txt</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>8165.9990234375</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>(8257.2001953125, 169.0)</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>169</v>
+        <v>0.07548189163208008</v>
       </c>
     </row>
     <row r="66">
@@ -1288,11 +1416,13 @@
           <t>U021608_0190_001.txt</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>31461.896484375</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>(31769.703125, 348.0)</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>348</v>
+        <v>0.2047348022460938</v>
       </c>
     </row>
     <row r="67">
@@ -1301,11 +1431,13 @@
           <t>U021608_0190_002.txt</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>32184.296875</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>(32966.69921875, 349.0)</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>349</v>
+        <v>0.20424485206604</v>
       </c>
     </row>
     <row r="68">
@@ -1314,11 +1446,13 @@
           <t>U041608_0380_001.txt</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>72061.015625</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(72772.1875, 699.0)</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>699</v>
+        <v>0.5998880863189697</v>
       </c>
     </row>
     <row r="69">
@@ -1327,11 +1461,13 @@
           <t>U041608_0380_002.txt</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>72698</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>(72861.59375, 698.0)</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>698</v>
+        <v>0.6232237815856934</v>
       </c>
     </row>
     <row r="70">
@@ -1340,11 +1476,13 @@
           <t>U061608_0570_001.txt</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>113282.40625</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>(112331.859375, 1045.0)</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>1045</v>
+        <v>1.187959909439087</v>
       </c>
     </row>
     <row r="71">
@@ -1353,11 +1491,13 @@
           <t>U061608_0570_002.txt</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>112760.6796875</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>(112618.3359375, 1044.0)</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>1044</v>
+        <v>1.18820595741272</v>
       </c>
     </row>
   </sheetData>
